--- a/biology/Zoologie/Hyalinobatrachium_aureoguttatum/Hyalinobatrachium_aureoguttatum.xlsx
+++ b/biology/Zoologie/Hyalinobatrachium_aureoguttatum/Hyalinobatrachium_aureoguttatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyalinobatrachium aureoguttatum est une espèce d'amphibiens de la famille des Centrolenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyalinobatrachium aureoguttatum est une espèce d'amphibiens de la famille des Centrolenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre de 45 à 1 560 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre de 45 à 1 560 m d'altitude :
 au Panamá dans la province de Darien ;
 en Colombie dans les départements de Chocó, d'Antioquia et de Valle del Cauca ;
 en Équateur dans la province d'Esmeraldas.</t>
@@ -544,9 +558,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle « couve » les œufs pour maintenir leur humidité[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle « couve » les œufs pour maintenir leur humidité.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barrera-Rodriguez &amp; Ruiz-Carranza, 1989 : Una nueva especie del genero Centrolenella Noble 1920 (Amphibia: Anura: Centrolenidae) de la Cordillera Occidental de Colombia. Trianea, vol. 3, p. 77-84.</t>
         </is>
